--- a/data/case1/11/P_device_14.xlsx
+++ b/data/case1/11/P_device_14.xlsx
@@ -56,32 +56,32 @@
   <dimension ref="A1:B4"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.7109375" customWidth="true"/>
-    <col min="2" max="2" width="15.42578125" customWidth="true"/>
+    <col min="1" max="1" width="16.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.057356623631377772</v>
+        <v>0.058292534492879806</v>
       </c>
       <c r="B1" s="0">
-        <v>0.0573566215769062</v>
+        <v>-0.058292535669159075</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>0.057036832348671858</v>
+        <v>-0.00055241910279379101</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.057036834421519869</v>
+        <v>0.00055241787173139403</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>0.0047579399865978244</v>
+        <v>-0.045310345580090339</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.0047579421011756245</v>
+        <v>0.045310344373800292</v>
       </c>
     </row>
     <row r="4">
